--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rspo1-Lgr5.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr5</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr5</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -534,55 +534,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H2">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I2">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J2">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.662039</v>
+        <v>0.1608535</v>
       </c>
       <c r="N2">
-        <v>1.324078</v>
+        <v>0.321707</v>
       </c>
       <c r="O2">
-        <v>0.1418397054364257</v>
+        <v>0.07956445037791675</v>
       </c>
       <c r="P2">
-        <v>0.1247117153349641</v>
+        <v>0.06339608824890296</v>
       </c>
       <c r="Q2">
-        <v>0.08114347207400001</v>
+        <v>0.1166041498315</v>
       </c>
       <c r="R2">
-        <v>0.4868608324440001</v>
+        <v>0.466416599326</v>
       </c>
       <c r="S2">
-        <v>0.09362868921276127</v>
+        <v>0.04602174829464494</v>
       </c>
       <c r="T2">
-        <v>0.08232246676175808</v>
+        <v>0.03028571697400074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H3">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I3">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J3">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.887018</v>
       </c>
       <c r="O3">
-        <v>0.2061780764726643</v>
+        <v>0.4760107808267615</v>
       </c>
       <c r="P3">
-        <v>0.2719212667100558</v>
+        <v>0.5689203153931102</v>
       </c>
       <c r="Q3">
-        <v>0.1179500827293333</v>
+        <v>0.6976084437873333</v>
       </c>
       <c r="R3">
-        <v>1.061550744564</v>
+        <v>4.185650662724</v>
       </c>
       <c r="S3">
-        <v>0.1360985838566648</v>
+        <v>0.2753346279235645</v>
       </c>
       <c r="T3">
-        <v>0.1794958026231062</v>
+        <v>0.2717858487594167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H4">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I4">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J4">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.064319</v>
+        <v>0.01721733333333333</v>
       </c>
       <c r="N4">
-        <v>0.192957</v>
+        <v>0.051652</v>
       </c>
       <c r="O4">
-        <v>0.0137801368408288</v>
+        <v>0.008516368395092752</v>
       </c>
       <c r="P4">
-        <v>0.01817415473702354</v>
+        <v>0.01017862449443853</v>
       </c>
       <c r="Q4">
-        <v>0.007883322554</v>
+        <v>0.01248099988933333</v>
       </c>
       <c r="R4">
-        <v>0.070949902986</v>
+        <v>0.07488599933600001</v>
       </c>
       <c r="S4">
-        <v>0.009096297440899391</v>
+        <v>0.004926046253091582</v>
       </c>
       <c r="T4">
-        <v>0.01199679793709174</v>
+        <v>0.004862554601364243</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H5">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I5">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J5">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.723397</v>
+        <v>0.8296169999999999</v>
       </c>
       <c r="N5">
-        <v>5.446794</v>
+        <v>1.659234</v>
       </c>
       <c r="O5">
-        <v>0.5834789616116954</v>
+        <v>0.4103611088921046</v>
       </c>
       <c r="P5">
-        <v>0.5130203982062916</v>
+        <v>0.3269712660575624</v>
       </c>
       <c r="Q5">
-        <v>0.333795876702</v>
+        <v>0.601396829853</v>
       </c>
       <c r="R5">
-        <v>2.002775260212</v>
+        <v>2.405587319412</v>
       </c>
       <c r="S5">
-        <v>0.3851556952324053</v>
+        <v>0.2373614795758777</v>
       </c>
       <c r="T5">
-        <v>0.3386458486759415</v>
+        <v>0.1562014233996747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.724909</v>
+      </c>
+      <c r="H6">
+        <v>1.449818</v>
+      </c>
+      <c r="I6">
+        <v>0.5784209917375155</v>
+      </c>
+      <c r="J6">
+        <v>0.477722171991027</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G6">
-        <v>0.122566</v>
-      </c>
-      <c r="H6">
-        <v>0.367698</v>
-      </c>
-      <c r="I6">
-        <v>0.6601021126254865</v>
-      </c>
-      <c r="J6">
-        <v>0.6601021126254866</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M6">
-        <v>0.2143703333333333</v>
+        <v>0.022719</v>
       </c>
       <c r="N6">
-        <v>0.643111</v>
+        <v>0.068157</v>
       </c>
       <c r="O6">
-        <v>0.04592814763829378</v>
+        <v>0.01123770852443926</v>
       </c>
       <c r="P6">
-        <v>0.06057307497049576</v>
+        <v>0.01343112579701554</v>
       </c>
       <c r="Q6">
-        <v>0.02627451427533333</v>
+        <v>0.016469207571</v>
       </c>
       <c r="R6">
-        <v>0.236470628478</v>
+        <v>0.098815245426</v>
       </c>
       <c r="S6">
-        <v>0.03031726728501297</v>
+        <v>0.006500126509563288</v>
       </c>
       <c r="T6">
-        <v>0.03998441475624624</v>
+        <v>0.006416346588034977</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,25 +844,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.122566</v>
+        <v>0.724909</v>
       </c>
       <c r="H7">
-        <v>0.367698</v>
+        <v>1.449818</v>
       </c>
       <c r="I7">
-        <v>0.6601021126254865</v>
+        <v>0.5784209917375155</v>
       </c>
       <c r="J7">
-        <v>0.6601021126254866</v>
+        <v>0.477722171991027</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.04105066666666667</v>
+        <v>0.02892933333333333</v>
       </c>
       <c r="N7">
-        <v>0.123152</v>
+        <v>0.086788</v>
       </c>
       <c r="O7">
-        <v>0.008794972000091984</v>
+        <v>0.01430958298368524</v>
       </c>
       <c r="P7">
-        <v>0.0115993900411694</v>
+        <v>0.01710258000897024</v>
       </c>
       <c r="Q7">
-        <v>0.005031416010666667</v>
+        <v>0.02097113409733333</v>
       </c>
       <c r="R7">
-        <v>0.045282744096</v>
+        <v>0.125826804584</v>
       </c>
       <c r="S7">
-        <v>0.005805579597742718</v>
+        <v>0.00827696318077349</v>
       </c>
       <c r="T7">
-        <v>0.00765678187134295</v>
+        <v>0.008170281668535583</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H8">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I8">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J8">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.662039</v>
+        <v>0.1608535</v>
       </c>
       <c r="N8">
-        <v>1.324078</v>
+        <v>0.321707</v>
       </c>
       <c r="O8">
-        <v>0.1418397054364257</v>
+        <v>0.07956445037791675</v>
       </c>
       <c r="P8">
-        <v>0.1247117153349641</v>
+        <v>0.06339608824890296</v>
       </c>
       <c r="Q8">
-        <v>0.04178216400866668</v>
+        <v>0.084986303311</v>
       </c>
       <c r="R8">
-        <v>0.250692984052</v>
+        <v>0.509917819866</v>
       </c>
       <c r="S8">
-        <v>0.04821101622366437</v>
+        <v>0.0335427020832718</v>
       </c>
       <c r="T8">
-        <v>0.04238924857320601</v>
+        <v>0.03311037127490222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,25 +968,25 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H9">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I9">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J9">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.887018</v>
       </c>
       <c r="O9">
-        <v>0.2061780764726643</v>
+        <v>0.4760107808267615</v>
       </c>
       <c r="P9">
-        <v>0.2719212667100558</v>
+        <v>0.5689203153931102</v>
       </c>
       <c r="Q9">
-        <v>0.06073451844577778</v>
+        <v>0.5084481374093333</v>
       </c>
       <c r="R9">
-        <v>0.546610666012</v>
+        <v>4.576033236683999</v>
       </c>
       <c r="S9">
-        <v>0.07007949261599949</v>
+        <v>0.200676152903197</v>
       </c>
       <c r="T9">
-        <v>0.09242546408694961</v>
+        <v>0.2971344666336935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,25 +1030,25 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H10">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I10">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J10">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.064319</v>
+        <v>0.01721733333333333</v>
       </c>
       <c r="N10">
-        <v>0.192957</v>
+        <v>0.051652</v>
       </c>
       <c r="O10">
-        <v>0.0137801368408288</v>
+        <v>0.008516368395092752</v>
       </c>
       <c r="P10">
-        <v>0.01817415473702354</v>
+        <v>0.01017862449443853</v>
       </c>
       <c r="Q10">
-        <v>0.004059257848666667</v>
+        <v>0.009096709197333333</v>
       </c>
       <c r="R10">
-        <v>0.036533320638</v>
+        <v>0.08187038277600001</v>
       </c>
       <c r="S10">
-        <v>0.004683839399929413</v>
+        <v>0.003590322142001169</v>
       </c>
       <c r="T10">
-        <v>0.00617735679993181</v>
+        <v>0.005316069893074286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,25 +1092,25 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H11">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I11">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J11">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.723397</v>
+        <v>0.8296169999999999</v>
       </c>
       <c r="N11">
-        <v>5.446794</v>
+        <v>1.659234</v>
       </c>
       <c r="O11">
-        <v>0.5834789616116954</v>
+        <v>0.4103611088921046</v>
       </c>
       <c r="P11">
-        <v>0.5130203982062916</v>
+        <v>0.3269712660575624</v>
       </c>
       <c r="Q11">
-        <v>0.171877215866</v>
+        <v>0.438324823482</v>
       </c>
       <c r="R11">
-        <v>1.031263295196</v>
+        <v>2.629948940892</v>
       </c>
       <c r="S11">
-        <v>0.1983232663792901</v>
+        <v>0.1729996293162269</v>
       </c>
       <c r="T11">
-        <v>0.1743745495303502</v>
+        <v>0.1707698426578877</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.528346</v>
+      </c>
+      <c r="H12">
+        <v>1.585038</v>
+      </c>
+      <c r="I12">
+        <v>0.4215790082624845</v>
+      </c>
+      <c r="J12">
+        <v>0.522277828008973</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.06311133333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.189334</v>
-      </c>
-      <c r="I12">
-        <v>0.3398978873745135</v>
-      </c>
-      <c r="J12">
-        <v>0.3398978873745135</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M12">
-        <v>0.2143703333333333</v>
+        <v>0.022719</v>
       </c>
       <c r="N12">
-        <v>0.643111</v>
+        <v>0.068157</v>
       </c>
       <c r="O12">
-        <v>0.04592814763829378</v>
+        <v>0.01123770852443926</v>
       </c>
       <c r="P12">
-        <v>0.06057307497049576</v>
+        <v>0.01343112579701554</v>
       </c>
       <c r="Q12">
-        <v>0.01352919756377778</v>
+        <v>0.012003492774</v>
       </c>
       <c r="R12">
-        <v>0.121762778074</v>
+        <v>0.108031434966</v>
       </c>
       <c r="S12">
-        <v>0.01561088035328081</v>
+        <v>0.004737582014875971</v>
       </c>
       <c r="T12">
-        <v>0.02058866021424953</v>
+        <v>0.007014779208980563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,25 +1216,25 @@
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06311133333333334</v>
+        <v>0.528346</v>
       </c>
       <c r="H13">
-        <v>0.189334</v>
+        <v>1.585038</v>
       </c>
       <c r="I13">
-        <v>0.3398978873745135</v>
+        <v>0.4215790082624845</v>
       </c>
       <c r="J13">
-        <v>0.3398978873745135</v>
+        <v>0.522277828008973</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,28 +1243,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.04105066666666667</v>
+        <v>0.02892933333333333</v>
       </c>
       <c r="N13">
-        <v>0.123152</v>
+        <v>0.086788</v>
       </c>
       <c r="O13">
-        <v>0.008794972000091984</v>
+        <v>0.01430958298368524</v>
       </c>
       <c r="P13">
-        <v>0.0115993900411694</v>
+        <v>0.01710258000897024</v>
       </c>
       <c r="Q13">
-        <v>0.002590762307555556</v>
+        <v>0.01528469754933333</v>
       </c>
       <c r="R13">
-        <v>0.023316860768</v>
+        <v>0.137562277944</v>
       </c>
       <c r="S13">
-        <v>0.002989392402349265</v>
+        <v>0.006032619802911744</v>
       </c>
       <c r="T13">
-        <v>0.00394260816982645</v>
+        <v>0.008932298340434661</v>
       </c>
     </row>
   </sheetData>
